--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741267.1730218127</v>
+        <v>738245.995557731</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>33.4920464844598</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.28182508062843</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.46519227902342</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.42160119810562</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.4216011981056</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47.38379687733241</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32.22184835001295</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -978,70 +978,70 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>47.3837968773324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,47 +1066,47 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.93225064571201</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="K7" t="n">
-        <v>13.74224000600998</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9.292476749857489</v>
       </c>
       <c r="E8" t="n">
-        <v>227.9910045283408</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="G8" t="n">
-        <v>227.9910045283408</v>
+        <v>13.19347636877793</v>
       </c>
       <c r="H8" t="n">
-        <v>64.77983182137842</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>129.1585992254726</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>17.37324245629407</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>160.9552812136324</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="X8" t="n">
-        <v>227.9910045283408</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>17.34980033612013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2149629564593</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50.5407095049317</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.7207716933465</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.6158632737492</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>46.60503692505858</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8151105642773</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.46694521690539</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.935558018087917</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>33.67862584618563</v>
       </c>
       <c r="V10" t="n">
-        <v>227.9910045283408</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="X10" t="n">
-        <v>40.68511851755745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>24.14662204184557</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>171.1866331756901</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>268.3517338167344</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>125.2990947094021</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -1579,22 +1579,22 @@
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>142.3070380754039</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>47.88058113793264</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>118.4312223122555</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,10 +1901,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085227</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>119.6255281319626</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>3.006892987834647</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>115.7228684476126</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>213.6608990998127</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.4306205949047</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.88641949135544</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>116.9020714724194</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>8.616048582070135</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987833766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.63412424768305</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>31.26260713376449</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717084</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.6664387710192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>28.5400493088915</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>107.5419779170869</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C2" t="n">
-        <v>81.47912519365818</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D2" t="n">
-        <v>30.48646439055056</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48646439055056</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>93.00011442488746</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4334,16 +4334,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
-        <v>103.9944324418577</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="O2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4358,22 +4358,22 @@
         <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.4717859967658</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.95295437098331</v>
+        <v>157.016601144929</v>
       </c>
       <c r="C3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E3" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
         <v>4.038618735606123</v>
@@ -4416,13 +4416,13 @@
         <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>54.01652558873189</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="N3" t="n">
-        <v>103.9944324418577</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
         <v>201.9309367803062</v>
@@ -4431,28 +4431,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>99.94561517409093</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>48.95295437098331</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>48.95295437098331</v>
+        <v>157.016601144929</v>
       </c>
       <c r="X3" t="n">
-        <v>48.95295437098331</v>
+        <v>157.016601144929</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.95295437098331</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9382759771985</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="F4" t="n">
-        <v>99.94561517409093</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="G4" t="n">
-        <v>99.94561517409093</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="H4" t="n">
-        <v>58.10561396388323</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="I4" t="n">
-        <v>58.10561396388323</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="J4" t="n">
-        <v>58.10561396388323</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L4" t="n">
-        <v>73.9036487032557</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M4" t="n">
-        <v>119.5318764051767</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5097832583024</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O4" t="n">
-        <v>199.656173881301</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9309367803062</v>
+        <v>123.6481822799185</v>
       </c>
       <c r="R4" t="n">
-        <v>201.9309367803062</v>
+        <v>123.6481822799185</v>
       </c>
       <c r="S4" t="n">
-        <v>201.9309367803062</v>
+        <v>123.6481822799185</v>
       </c>
       <c r="T4" t="n">
-        <v>201.9309367803062</v>
+        <v>123.6481822799185</v>
       </c>
       <c r="U4" t="n">
-        <v>201.9309367803062</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="V4" t="n">
-        <v>201.9309367803062</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9382759771985</v>
+        <v>72.65552147681089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.16612652666438</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C5" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G5" t="n">
         <v>4.303705438449811</v>
@@ -4568,19 +4568,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
-        <v>55.4102075200413</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="M5" t="n">
-        <v>108.6685623208577</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="N5" t="n">
-        <v>161.9269171216741</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="O5" t="n">
-        <v>161.9269171216741</v>
+        <v>164.078769840899</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4595,22 +4595,22 @@
         <v>160.8455567905485</v>
       </c>
       <c r="T5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.322850834276</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="D6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
         <v>4.303705438449811</v>
@@ -4650,19 +4650,19 @@
         <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>63.86868055626314</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="M6" t="n">
-        <v>63.86868055626314</v>
+        <v>170.385390157896</v>
       </c>
       <c r="N6" t="n">
-        <v>63.86868055626314</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4680,16 +4680,16 @@
         <v>215.1852719224906</v>
       </c>
       <c r="V6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.322850834276</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="C7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="E7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="F7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
-        <v>72.52447108151307</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="H7" t="n">
-        <v>72.52447108151307</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="I7" t="n">
-        <v>72.52447108151307</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
-        <v>18.18475594957101</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="W7" t="n">
-        <v>181.2039013453972</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="X7" t="n">
-        <v>181.2039013453972</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>681.6700741453421</v>
+        <v>271.2463082885051</v>
       </c>
       <c r="C8" t="n">
-        <v>681.6700741453421</v>
+        <v>271.2463082885051</v>
       </c>
       <c r="D8" t="n">
-        <v>681.6700741453421</v>
+        <v>261.8599681371339</v>
       </c>
       <c r="E8" t="n">
-        <v>451.3761301773211</v>
+        <v>261.8599681371339</v>
       </c>
       <c r="F8" t="n">
-        <v>444.4306294281176</v>
+        <v>31.5660241691136</v>
       </c>
       <c r="G8" t="n">
-        <v>214.1366854600966</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="H8" t="n">
-        <v>148.7025119031487</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="I8" t="n">
-        <v>18.23928036226726</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="J8" t="n">
-        <v>183.640178089623</v>
+        <v>128.8477973221893</v>
       </c>
       <c r="K8" t="n">
-        <v>231.3740938255588</v>
+        <v>176.5817130581242</v>
       </c>
       <c r="L8" t="n">
-        <v>327.4939990754866</v>
+        <v>272.7016183080509</v>
       </c>
       <c r="M8" t="n">
-        <v>466.1153514331152</v>
+        <v>411.3229706656782</v>
       </c>
       <c r="N8" t="n">
-        <v>611.5935505748851</v>
+        <v>556.8011698074467</v>
       </c>
       <c r="O8" t="n">
-        <v>735.6292275009622</v>
+        <v>680.8368467335227</v>
       </c>
       <c r="P8" t="n">
-        <v>806.9898072316076</v>
+        <v>906.5479412165795</v>
       </c>
       <c r="Q8" t="n">
-        <v>911.9640181133632</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="R8" t="n">
-        <v>911.9640181133632</v>
+        <v>894.4152883595281</v>
       </c>
       <c r="S8" t="n">
-        <v>911.9640181133632</v>
+        <v>731.8341962245458</v>
       </c>
       <c r="T8" t="n">
-        <v>911.9640181133632</v>
+        <v>731.8341962245458</v>
       </c>
       <c r="U8" t="n">
-        <v>911.9640181133632</v>
+        <v>731.8341962245458</v>
       </c>
       <c r="V8" t="n">
-        <v>911.9640181133632</v>
+        <v>731.8341962245458</v>
       </c>
       <c r="W8" t="n">
-        <v>911.9640181133632</v>
+        <v>501.5402522565255</v>
       </c>
       <c r="X8" t="n">
-        <v>681.6700741453421</v>
+        <v>271.2463082885051</v>
       </c>
       <c r="Y8" t="n">
-        <v>681.6700741453421</v>
+        <v>271.2463082885051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>515.0532384243185</v>
+        <v>35.76433120683299</v>
       </c>
       <c r="C9" t="n">
-        <v>515.0532384243185</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="D9" t="n">
-        <v>366.1188287630672</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="E9" t="n">
-        <v>206.8813737576117</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="F9" t="n">
-        <v>206.8813737576117</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="G9" t="n">
-        <v>69.2905020844205</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="H9" t="n">
-        <v>69.2905020844205</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="I9" t="n">
-        <v>18.23928036226726</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="J9" t="n">
-        <v>123.0575422560914</v>
+        <v>123.057542256091</v>
       </c>
       <c r="K9" t="n">
-        <v>167.0089055121134</v>
+        <v>294.2036647466274</v>
       </c>
       <c r="L9" t="n">
-        <v>272.4294785000995</v>
+        <v>399.6242377346126</v>
       </c>
       <c r="M9" t="n">
-        <v>414.8071829821524</v>
+        <v>542.0019422166646</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5182774652098</v>
+        <v>702.5566057940217</v>
       </c>
       <c r="O9" t="n">
-        <v>765.1746325402311</v>
+        <v>827.212960869042</v>
       </c>
       <c r="P9" t="n">
-        <v>907.9276094718631</v>
+        <v>907.9276094718609</v>
       </c>
       <c r="Q9" t="n">
-        <v>911.9640181133632</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="R9" t="n">
-        <v>911.9640181133632</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="S9" t="n">
-        <v>759.7208143827102</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="T9" t="n">
-        <v>562.129033298115</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="U9" t="n">
-        <v>515.0532384243185</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="V9" t="n">
-        <v>515.0532384243185</v>
+        <v>681.6700741453401</v>
       </c>
       <c r="W9" t="n">
-        <v>515.0532384243185</v>
+        <v>451.3761301773197</v>
       </c>
       <c r="X9" t="n">
-        <v>515.0532384243185</v>
+        <v>243.5246299717869</v>
       </c>
       <c r="Y9" t="n">
-        <v>515.0532384243185</v>
+        <v>35.76433120683299</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.573994834678</v>
+        <v>191.8635159580618</v>
       </c>
       <c r="C10" t="n">
-        <v>471.6378119067712</v>
+        <v>191.8635159580618</v>
       </c>
       <c r="D10" t="n">
-        <v>321.5211724944355</v>
+        <v>191.8635159580618</v>
       </c>
       <c r="E10" t="n">
-        <v>173.6080789120423</v>
+        <v>191.8635159580618</v>
       </c>
       <c r="F10" t="n">
-        <v>173.6080789120423</v>
+        <v>44.97356846015144</v>
       </c>
       <c r="G10" t="n">
-        <v>173.6080789120423</v>
+        <v>44.97356846015144</v>
       </c>
       <c r="H10" t="n">
-        <v>18.23928036226726</v>
+        <v>44.97356846015144</v>
       </c>
       <c r="I10" t="n">
-        <v>18.23928036226726</v>
+        <v>44.97356846015144</v>
       </c>
       <c r="J10" t="n">
-        <v>18.23928036226726</v>
+        <v>18.23928036226721</v>
       </c>
       <c r="K10" t="n">
-        <v>105.0177289733317</v>
+        <v>105.0177289733313</v>
       </c>
       <c r="L10" t="n">
-        <v>271.5907010242865</v>
+        <v>271.5907010242856</v>
       </c>
       <c r="M10" t="n">
-        <v>457.6076678924668</v>
+        <v>457.6076678924653</v>
       </c>
       <c r="N10" t="n">
-        <v>644.636183478739</v>
+        <v>644.6361834787371</v>
       </c>
       <c r="O10" t="n">
-        <v>801.3709935506155</v>
+        <v>801.3709935506131</v>
       </c>
       <c r="P10" t="n">
-        <v>911.9640181133632</v>
+        <v>911.9640181133605</v>
       </c>
       <c r="Q10" t="n">
-        <v>911.9640181133632</v>
+        <v>904.9584039536757</v>
       </c>
       <c r="R10" t="n">
-        <v>911.9640181133632</v>
+        <v>904.9584039536757</v>
       </c>
       <c r="S10" t="n">
-        <v>911.9640181133632</v>
+        <v>904.9584039536757</v>
       </c>
       <c r="T10" t="n">
-        <v>911.9640181133632</v>
+        <v>904.9584039536757</v>
       </c>
       <c r="U10" t="n">
-        <v>911.9640181133632</v>
+        <v>870.9395899676296</v>
       </c>
       <c r="V10" t="n">
-        <v>681.6700741453421</v>
+        <v>870.9395899676296</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6700741453421</v>
+        <v>640.6456459996092</v>
       </c>
       <c r="X10" t="n">
-        <v>640.573994834678</v>
+        <v>412.6560951015919</v>
       </c>
       <c r="Y10" t="n">
-        <v>640.573994834678</v>
+        <v>191.8635159580618</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.837135195602</v>
+        <v>2040.546330724784</v>
       </c>
       <c r="C11" t="n">
-        <v>1549.87461825519</v>
+        <v>1671.583813784373</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.608919648439</v>
+        <v>1313.318115177623</v>
       </c>
       <c r="E11" t="n">
-        <v>805.8206670501953</v>
+        <v>927.5298625793782</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605878</v>
+        <v>516.5439577897707</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706891</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656971</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479995</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3672.904689377401</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926742</v>
+        <v>3419.41074749893</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583171</v>
+        <v>3088.347860155359</v>
       </c>
       <c r="W11" t="n">
-        <v>3069.042065496616</v>
+        <v>3088.347860155359</v>
       </c>
       <c r="X11" t="n">
-        <v>2695.576307235536</v>
+        <v>2817.285502764718</v>
       </c>
       <c r="Y11" t="n">
-        <v>2305.436975259724</v>
+        <v>2427.146170788906</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,22 +5112,22 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>354.473570333545</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>773.1706109914966</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
         <v>1546.994364450733</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>586.5533847019051</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547369</v>
+        <v>586.5533847019051</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424011</v>
+        <v>586.5533847019051</v>
       </c>
       <c r="E13" t="n">
-        <v>627.486625760008</v>
+        <v>586.5533847019051</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>439.6634372039953</v>
       </c>
       <c r="G13" t="n">
         <v>313.098695073286</v>
@@ -5194,7 +5194,7 @@
         <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
@@ -5227,22 +5227,22 @@
         <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458879</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.627619458879</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1724.883136554431</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1724.883136554431</v>
+        <v>814.5429355999224</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>586.5533847019051</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512883</v>
+        <v>586.5533847019051</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683294</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404225</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280868</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5446,10 +5446,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683294</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,34 +5525,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783228</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,16 +5835,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876694</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>538.7363435406105</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>388.6197041282747</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773693</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614392</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179091</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,16 +6020,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991042</v>
+        <v>707.6725264685177</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711972</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711972</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2330.071297269541</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>928.4651056120479</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>707.6725264685177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,25 +6224,25 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.9555321712448</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>558.019349243338</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310021</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310021</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6382,10 +6382,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2410.164476918741</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2190.563011941681</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.487785285879</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079992</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014846</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,22 +6461,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,10 +6549,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2410.714175003134</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.714175003134</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171307</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892238</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6868,16 +6868,16 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473704</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597616</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597616</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>264.0500279773685</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2436.221543936137</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.366709591041</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273909</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.355603809823</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>814.419420881916</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695801</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871869</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429804</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.78619868161</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,19 +7406,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7494,16 +7494,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.550520851191</v>
+        <v>580.8993044876682</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597611</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597611</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>264.050027977368</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794576</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>117.1600804794576</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.198985681431</v>
+        <v>762.547769317908</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,10 +7634,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7649,10 +7649,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,13 +7661,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398594</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057248</v>
+        <v>726.9555321712455</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778179</v>
+        <v>558.0193492433386</v>
       </c>
       <c r="D46" t="n">
-        <v>637.902506765482</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830889</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851785</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.089047197418</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.48758222036</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.48758222036</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014473</v>
+        <v>1646.803297079994</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1357.386127043033</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079495</v>
+        <v>1129.396576145016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>908.6039970014853</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>262.5442413612734</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
         <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>268.4117974997384</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
-        <v>179.2618479563565</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>175.0047203318838</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>265.1715861506252</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>262.6100926964995</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8298,22 +8298,22 @@
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>175.9947778369091</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>157.002365647822</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9260245103767</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>113.7507760130505</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>155.9096108610225</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.5637717019937</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>128.4795547823384</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>65.81457667242344</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>62.66497810991154</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>178.0543355417229</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>101.3793668617347</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.52390864752148</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>109.8306052484241</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>119.3662399606952</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28.00274033431371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>99.26785128072139</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>106.0841272570746</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>142.4141550350966</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.30341755403202</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>12.04875628922449</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393013</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.94462611521696</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.48882721876622</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>101.6825818796754</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.9994244361422</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>142.4141550350975</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.7411224624386</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>114.1584408891668</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.3791545843329</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>117.1847295890531</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.91821458107565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
-        <v>152.4862366927532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>144.5956654067411</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904131.2078512709</v>
+        <v>904131.207851271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>995463.9682353936</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.929178749</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.929178749</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440579</v>
+        <v>384609.353244058</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372532</v>
@@ -26335,13 +26335,13 @@
         <v>423751.9648372531</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,7 +26350,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372533</v>
@@ -26369,16 +26369,16 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>473459.590384637</v>
+        <v>473459.5903846353</v>
       </c>
       <c r="E3" t="n">
-        <v>765670.6839494563</v>
+        <v>765670.6839494581</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>44087.10741304848</v>
+        <v>44087.10741304843</v>
       </c>
       <c r="M3" t="n">
-        <v>184717.4359189083</v>
+        <v>184717.4359189084</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>268344.6465609533</v>
+        <v>268344.6465609537</v>
       </c>
       <c r="E4" t="n">
         <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719643</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719637</v>
+        <v>7507.368461719656</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719647</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.368461719642</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719658</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719655</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719635</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719618</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719652</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719631</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719627</v>
@@ -26473,10 +26473,10 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>58927.44895673124</v>
+        <v>58927.44895673116</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37456.57460399598</v>
+        <v>-37456.57460399581</v>
       </c>
       <c r="C6" t="n">
-        <v>-7898.964305874324</v>
+        <v>-7898.964305874091</v>
       </c>
       <c r="D6" t="n">
-        <v>-369684.7567235726</v>
+        <v>-369684.7567235711</v>
       </c>
       <c r="E6" t="n">
-        <v>-473600.7656748572</v>
+        <v>-473821.8969888336</v>
       </c>
       <c r="F6" t="n">
-        <v>125813.7977811973</v>
+        <v>125779.0598557619</v>
       </c>
       <c r="G6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261905</v>
       </c>
       <c r="H6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="I6" t="n">
-        <v>315122.0665516263</v>
+        <v>315087.3286261906</v>
       </c>
       <c r="J6" t="n">
-        <v>301913.5620458897</v>
+        <v>301878.8241204542</v>
       </c>
       <c r="K6" t="n">
-        <v>314269.2561199078</v>
+        <v>314234.5181944723</v>
       </c>
       <c r="L6" t="n">
-        <v>271034.9591385779</v>
+        <v>271000.2212131422</v>
       </c>
       <c r="M6" t="n">
-        <v>130404.6306327181</v>
+        <v>130369.8927072823</v>
       </c>
       <c r="N6" t="n">
-        <v>265282.4924196027</v>
+        <v>265247.7544941672</v>
       </c>
       <c r="O6" t="n">
-        <v>315122.0665516265</v>
+        <v>315087.3286261908</v>
       </c>
       <c r="P6" t="n">
-        <v>315122.0665516266</v>
+        <v>315087.3286261908</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>524.678710156336</v>
+        <v>524.6787101563342</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26793,19 +26793,19 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>227.9910045283408</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>489.6574494372107</v>
+        <v>489.6574494372089</v>
       </c>
       <c r="E3" t="n">
-        <v>677.5625270586144</v>
+        <v>677.5625270586162</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>174.1946865477182</v>
+        <v>174.1946865477175</v>
       </c>
       <c r="E4" t="n">
-        <v>741.2298194206683</v>
+        <v>741.2298194206691</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1946865477179</v>
+        <v>174.1946865477177</v>
       </c>
       <c r="M4" t="n">
-        <v>741.2298194206687</v>
+        <v>741.2298194206691</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1946865477182</v>
+        <v>174.1946865477175</v>
       </c>
       <c r="M4" t="n">
-        <v>741.2298194206683</v>
+        <v>741.2298194206691</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.251107468404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.2003074256064</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>381.7181749193716</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>156.4264279942944</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939363</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>204.4090352062711</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.2433067092923</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.58647819830733</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.60172783196103</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27512,13 +27512,13 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>182.3178529543487</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.2297908818962</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4366026492081</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>41.2654212678836</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27591,13 +27591,13 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>235.8340315500025</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>236.0402641415145</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.9375236828579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>317.8890948936751</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6541973916985</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27667,7 +27667,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>168.683227789346</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27698,13 +27698,13 @@
         <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.0612686873063</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>91.27289441276125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27752,16 +27752,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>151.9766672228548</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.298898899972</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27795,10 +27795,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>35.09793845387575</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>1.190010639702024</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27825,7 +27825,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>173.8794355044132</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>233.9166909956704</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.7883353714722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>345.3905648708255</v>
       </c>
       <c r="E8" t="n">
-        <v>153.939365543921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>178.8850412133713</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>185.2024718404371</v>
-      </c>
       <c r="H8" t="n">
-        <v>253.0934995792588</v>
+        <v>317.8733314006373</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>129.1585992254729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.37324245629361</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>160.9552812136322</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.862558895953</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>121.2499641890729</v>
       </c>
       <c r="X8" t="n">
-        <v>141.7400961501282</v>
+        <v>141.7400961501289</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>155.3586986521956</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2149629564593</v>
       </c>
       <c r="H9" t="n">
-        <v>101.3359865028714</v>
+        <v>101.3359865028715</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>50.54070950493183</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.08847735101016</v>
+        <v>30.0884773510104</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>150.7207716933466</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.6158632737492</v>
       </c>
       <c r="U9" t="n">
-        <v>179.26209816863</v>
+        <v>225.8671350936885</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>4.809582621085156</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>23.70397863257949</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0448374221113</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.8151105642773</v>
       </c>
       <c r="I10" t="n">
-        <v>126.9974065141901</v>
+        <v>126.9974065141902</v>
       </c>
       <c r="J10" t="n">
-        <v>26.46694521690516</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.935558018087647</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>134.7514094028541</v>
+        <v>134.7514094028543</v>
       </c>
       <c r="S10" t="n">
-        <v>207.5279244735346</v>
+        <v>207.5279244735347</v>
       </c>
       <c r="T10" t="n">
         <v>223.9029829729786</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2674216145083</v>
+        <v>252.5887957683227</v>
       </c>
       <c r="V10" t="n">
-        <v>24.14663879548721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>58.53199380825089</v>
       </c>
       <c r="X10" t="n">
-        <v>185.0245368714797</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-6.431426819679993e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.431426819679993e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.109261146357128</v>
+        <v>2.109261146357121</v>
       </c>
       <c r="H8" t="n">
-        <v>21.60147071512995</v>
+        <v>21.60147071512987</v>
       </c>
       <c r="I8" t="n">
-        <v>81.31729034493326</v>
+        <v>81.31729034493299</v>
       </c>
       <c r="J8" t="n">
-        <v>179.0209032206285</v>
+        <v>179.0209032206278</v>
       </c>
       <c r="K8" t="n">
-        <v>268.3059275459257</v>
+        <v>268.3059275459248</v>
       </c>
       <c r="L8" t="n">
-        <v>332.8572283537528</v>
+        <v>332.8572283537516</v>
       </c>
       <c r="M8" t="n">
-        <v>370.3678012652813</v>
+        <v>370.36780126528</v>
       </c>
       <c r="N8" t="n">
-        <v>376.3607394973686</v>
+        <v>376.3607394973673</v>
       </c>
       <c r="O8" t="n">
-        <v>355.3867739732798</v>
+        <v>355.3867739732786</v>
       </c>
       <c r="P8" t="n">
-        <v>303.3143894225882</v>
+        <v>303.3143894225872</v>
       </c>
       <c r="Q8" t="n">
-        <v>227.7764746186735</v>
+        <v>227.7764746186727</v>
       </c>
       <c r="R8" t="n">
-        <v>132.4958754848561</v>
+        <v>132.4958754848556</v>
       </c>
       <c r="S8" t="n">
-        <v>48.06478837261311</v>
+        <v>48.06478837261294</v>
       </c>
       <c r="T8" t="n">
-        <v>9.233290668178332</v>
+        <v>9.2332906681783</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1687408917085702</v>
+        <v>0.1687408917085696</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.128554206751364</v>
+        <v>1.12855420675136</v>
       </c>
       <c r="H9" t="n">
-        <v>10.89945773362502</v>
+        <v>10.89945773362498</v>
       </c>
       <c r="I9" t="n">
-        <v>38.85592334648338</v>
+        <v>38.85592334648324</v>
       </c>
       <c r="J9" t="n">
-        <v>106.6236235422419</v>
+        <v>106.6236235422415</v>
       </c>
       <c r="K9" t="n">
-        <v>182.2367553945832</v>
+        <v>182.2367553945826</v>
       </c>
       <c r="L9" t="n">
-        <v>245.0398070404662</v>
+        <v>245.0398070404653</v>
       </c>
       <c r="M9" t="n">
-        <v>285.9498970352031</v>
+        <v>285.9498970352021</v>
       </c>
       <c r="N9" t="n">
-        <v>293.5181399392507</v>
+        <v>293.5181399392496</v>
       </c>
       <c r="O9" t="n">
-        <v>268.5117546212336</v>
+        <v>268.5117546212327</v>
       </c>
       <c r="P9" t="n">
-        <v>215.5043554979864</v>
+        <v>215.5043554979857</v>
       </c>
       <c r="Q9" t="n">
-        <v>144.0589545319812</v>
+        <v>144.0589545319807</v>
       </c>
       <c r="R9" t="n">
-        <v>70.06935680163298</v>
+        <v>70.06935680163274</v>
       </c>
       <c r="S9" t="n">
-        <v>20.96239941049134</v>
+        <v>20.96239941049126</v>
       </c>
       <c r="T9" t="n">
-        <v>4.548865421072383</v>
+        <v>4.548865421072367</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07424698728627399</v>
+        <v>0.07424698728627374</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9461419363474911</v>
+        <v>0.9461419363474878</v>
       </c>
       <c r="H10" t="n">
-        <v>8.412061943162245</v>
+        <v>8.412061943162216</v>
       </c>
       <c r="I10" t="n">
-        <v>28.45306841306819</v>
+        <v>28.4530684130681</v>
       </c>
       <c r="J10" t="n">
-        <v>66.89223489976762</v>
+        <v>66.89223489976739</v>
       </c>
       <c r="K10" t="n">
-        <v>109.9244904229176</v>
+        <v>109.9244904229172</v>
       </c>
       <c r="L10" t="n">
-        <v>140.6655020638807</v>
+        <v>140.6655020638802</v>
       </c>
       <c r="M10" t="n">
-        <v>148.3120491676344</v>
+        <v>148.3120491676339</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7855201321575</v>
+        <v>144.785520132157</v>
       </c>
       <c r="O10" t="n">
-        <v>133.7328620575527</v>
+        <v>133.7328620575522</v>
       </c>
       <c r="P10" t="n">
-        <v>114.4315665560638</v>
+        <v>114.4315665560634</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.22648523360674</v>
+        <v>79.22648523360647</v>
       </c>
       <c r="R10" t="n">
-        <v>42.54198197431536</v>
+        <v>42.54198197431521</v>
       </c>
       <c r="S10" t="n">
-        <v>16.48867356343763</v>
+        <v>16.48867356343758</v>
       </c>
       <c r="T10" t="n">
-        <v>4.042606455302916</v>
+        <v>4.042606455302901</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05160774198259048</v>
+        <v>0.05160774198259031</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>417.574675759838</v>
@@ -31847,10 +31847,10 @@
         <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>382.5526639806304</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798863</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
         <v>615.2639659924473</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>518.4394551593577</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N18" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>237.3557891543622</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524596</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,31 +33968,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,31 +34442,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>161.7871425275301</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34702,19 +34702,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="N2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="N2" t="n">
-        <v>48.44302776295223</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>50.48273419507654</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="O3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="O3" t="n">
-        <v>48.44302776295223</v>
-      </c>
       <c r="P3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
-        <v>51.62272937534495</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="N5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>51.62272937534497</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>45.25240582282283</v>
       </c>
       <c r="O6" t="n">
-        <v>45.25240582282281</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>167.071613866016</v>
+        <v>111.7257747069921</v>
       </c>
       <c r="K8" t="n">
-        <v>48.21607650094518</v>
+        <v>48.21607650094427</v>
       </c>
       <c r="L8" t="n">
-        <v>97.09081338376552</v>
+        <v>97.09081338376438</v>
       </c>
       <c r="M8" t="n">
-        <v>140.0215680380086</v>
+        <v>140.0215680380073</v>
       </c>
       <c r="N8" t="n">
-        <v>146.9476759007777</v>
+        <v>146.9476759007763</v>
       </c>
       <c r="O8" t="n">
-        <v>125.2885625515931</v>
+        <v>125.2885625515919</v>
       </c>
       <c r="P8" t="n">
-        <v>72.08139366731865</v>
+        <v>227.9910045283401</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.0345564462177</v>
+        <v>5.470784744223209</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>105.877032215984</v>
+        <v>105.8770322159836</v>
       </c>
       <c r="K9" t="n">
-        <v>44.39531642022425</v>
+        <v>172.874871202562</v>
       </c>
       <c r="L9" t="n">
-        <v>106.485427260592</v>
+        <v>106.4854272605912</v>
       </c>
       <c r="M9" t="n">
-        <v>143.8158631131848</v>
+        <v>143.8158631131838</v>
       </c>
       <c r="N9" t="n">
-        <v>227.9910045283408</v>
+        <v>162.1764278559163</v>
       </c>
       <c r="O9" t="n">
-        <v>125.9155101767892</v>
+        <v>125.9155101767882</v>
       </c>
       <c r="P9" t="n">
-        <v>144.1949261935677</v>
+        <v>81.52994808365543</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.077180445959669</v>
+        <v>4.077180445959158</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>87.65499859703472</v>
+        <v>87.65499859703435</v>
       </c>
       <c r="L10" t="n">
-        <v>168.2555273241968</v>
+        <v>168.2555273241963</v>
       </c>
       <c r="M10" t="n">
-        <v>187.895926129475</v>
+        <v>187.8959261294745</v>
       </c>
       <c r="N10" t="n">
-        <v>188.9176925113861</v>
+        <v>188.9176925113856</v>
       </c>
       <c r="O10" t="n">
-        <v>158.3179899715924</v>
+        <v>158.3179899715919</v>
       </c>
       <c r="P10" t="n">
-        <v>111.7101258209573</v>
+        <v>111.7101258209569</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>279.7332367854791</v>
@@ -35495,10 +35495,10 @@
         <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>240.4186300586121</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965529</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
         <v>472.6677215480029</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3054212373395</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35899,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127482</v>
       </c>
       <c r="N18" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>94.75954470991782</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36847,7 +36847,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -36917,13 +36917,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394601</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37163,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317103</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010452</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>23.94570355317105</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010452</v>
